--- a/biology/Médecine/Jacques-Pierre_Maygrier/Jacques-Pierre_Maygrier.xlsx
+++ b/biology/Médecine/Jacques-Pierre_Maygrier/Jacques-Pierre_Maygrier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques-Pierre Maygrier est un médecin français né le 11 juin 1771 à Angoulême et mort le 28 avril 1834 à Paris[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques-Pierre Maygrier est un médecin français né le 11 juin 1771 à Angoulême et mort le 28 avril 1834 à Paris.
 Élève d'Antoine Dubois, Maygrier exerça à l'Hôpital Cochin et à l'Hôtel-Dieu. Il est considéré comme un des meilleurs accoucheurs du XIXe siècle. 
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Extrait du Dictionnaire historique de la médecine ancienne et moderne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « Maygrier commença ses études médicales à Brest en 1787. Il fut successivement 
@@ -545,13 +559,15 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nouvelle méthode pour manœuvrer les accouchemens, Paris, Ed. Méquignon, 1804
-Dissertation sur la délivrance, Paris, Ed. Méquignon, 1804[2].
+Dissertation sur la délivrance, Paris, Ed. Méquignon, 1804.
 Manuel de l'anatomiste, ou Traité sur la manière de préparer toutes les parties de l'anatomie, suivie d'une description complète de ces mêmes parties, Paris, Éd. J.-S. Merlin, 1811
 Nouveaux élémens de la science et de l'art des accouchemens, Paris, Béchet, 1822, ouvrage illustré de 80 planches gravées en taille-douce par Forestier et François-Louis Couché fils (1782-1849), d'après Antoine Chazal
-Nouvelles démonstrations d'accouchements sur Google Livres, avec planches, 2e  éd., refondue et augmentée par Halmagrand, docteur-médecin, professeur d'accouchements[3], Béchet, 1840</t>
+Nouvelles démonstrations d'accouchements sur Google Livres, avec planches, 2e  éd., refondue et augmentée par Halmagrand, docteur-médecin, professeur d'accouchements, Béchet, 1840</t>
         </is>
       </c>
     </row>
